--- a/second-order/1878/December1878.xlsx
+++ b/second-order/1878/December1878.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1878\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1878/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14653" documentId="13_ncr:1_{878BFB88-EC4C-44ED-B5CA-C4DFC7607816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4954BFC-1F2B-49C2-BBD9-805541E3E3B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5376063-7FDE-064A-AE64-9351014D37B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="22" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="2300" yWindow="720" windowWidth="29040" windowHeight="15840" tabRatio="832" activeTab="11" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -333,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,9 +652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -692,7 +692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -798,7 +798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -940,7 +940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,17 +950,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -997,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3158,18 +3158,18 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3206,7 +3206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5367,13 +5367,13 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -5410,7 +5410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>65</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>65</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>65</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>65</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>65</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>65</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -7566,17 +7566,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F88C9-B23F-4F2A-A610-B51C3EC0FD98}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -7613,7 +7613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>66</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>29.311</v>
       </c>
       <c r="F21" s="6">
-        <v>19.152999999999999</v>
+        <v>29.152999999999999</v>
       </c>
       <c r="G21" s="1">
         <v>37.6</v>
@@ -8848,7 +8848,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>66</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>66</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>66</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>29.425999999999998</v>
       </c>
       <c r="F32" s="6">
-        <v>39.317999999999998</v>
+        <v>29.318000000000001</v>
       </c>
       <c r="G32" s="1">
         <v>37.299999999999997</v>
@@ -9563,7 +9563,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -9773,13 +9773,13 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -9816,7 +9816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>67</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -11977,18 +11977,18 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -12025,7 +12025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -14186,13 +14186,13 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -14229,7 +14229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>69</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -16390,18 +16390,18 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -16438,7 +16438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>70</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -18388,7 +18388,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>70</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -18599,13 +18599,13 @@
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -18642,7 +18642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -19292,7 +19292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -19357,7 +19357,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -20072,7 +20072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -20137,7 +20137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -20202,7 +20202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -20332,7 +20332,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -20802,13 +20802,13 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -20845,7 +20845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -21495,7 +21495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
@@ -22080,7 +22080,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -22340,7 +22340,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -22665,7 +22665,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>72</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -23005,13 +23005,13 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -23048,7 +23048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -23113,7 +23113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -23568,7 +23568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -23698,7 +23698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -23763,7 +23763,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -23893,7 +23893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -23958,7 +23958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -24023,7 +24023,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -24153,7 +24153,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -24218,7 +24218,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -24413,7 +24413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -24478,7 +24478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -24543,7 +24543,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -24608,7 +24608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -24933,7 +24933,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -25063,7 +25063,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -25128,7 +25128,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -25208,12 +25208,12 @@
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -25250,7 +25250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -25315,7 +25315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -25380,7 +25380,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -25510,7 +25510,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -25575,7 +25575,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -25640,7 +25640,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -25770,7 +25770,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -25835,7 +25835,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -25900,7 +25900,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
@@ -26030,7 +26030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -26160,7 +26160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -26290,7 +26290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -26420,7 +26420,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -26485,7 +26485,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -26550,7 +26550,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -26615,7 +26615,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -26680,7 +26680,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -26810,7 +26810,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
@@ -26875,7 +26875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -26940,7 +26940,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -27135,7 +27135,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -27200,7 +27200,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
@@ -27330,7 +27330,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -27411,18 +27411,18 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -27459,7 +27459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -27589,7 +27589,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
@@ -27654,7 +27654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -27784,7 +27784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -27849,7 +27849,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
@@ -27914,7 +27914,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -27979,7 +27979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -28109,7 +28109,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -28239,7 +28239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -28304,7 +28304,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -28369,7 +28369,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -28434,7 +28434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -28499,7 +28499,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -28564,7 +28564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
@@ -28629,7 +28629,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -28694,7 +28694,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
@@ -28759,7 +28759,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
@@ -28824,7 +28824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -28889,7 +28889,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>80</v>
       </c>
@@ -28954,7 +28954,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
@@ -29019,7 +29019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -29084,7 +29084,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -29149,7 +29149,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
@@ -29214,7 +29214,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -29279,7 +29279,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -29409,7 +29409,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -29474,7 +29474,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -29539,7 +29539,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -29620,13 +29620,13 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -29663,7 +29663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -29728,7 +29728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -29858,7 +29858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>81</v>
       </c>
@@ -29923,7 +29923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>81</v>
       </c>
@@ -29988,7 +29988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -30053,7 +30053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
@@ -30118,7 +30118,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -30183,7 +30183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -30248,7 +30248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -30313,7 +30313,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
@@ -30378,7 +30378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>81</v>
       </c>
@@ -30443,7 +30443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
@@ -30508,7 +30508,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>81</v>
       </c>
@@ -30573,7 +30573,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -30638,7 +30638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -30703,7 +30703,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -30768,7 +30768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -30833,7 +30833,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -30898,7 +30898,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -30963,7 +30963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
@@ -31028,7 +31028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -31093,7 +31093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -31223,7 +31223,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -31288,7 +31288,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -31353,7 +31353,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
@@ -31418,7 +31418,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
@@ -31483,7 +31483,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
@@ -31548,7 +31548,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
@@ -31613,7 +31613,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
@@ -31678,7 +31678,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>81</v>
       </c>
@@ -31743,7 +31743,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -31823,13 +31823,13 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -31866,7 +31866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -31931,7 +31931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -31996,7 +31996,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -32061,7 +32061,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -32126,7 +32126,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -32191,7 +32191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
@@ -32256,7 +32256,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -32321,7 +32321,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -32386,7 +32386,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -32451,7 +32451,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -32516,7 +32516,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -32581,7 +32581,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>82</v>
       </c>
@@ -32646,7 +32646,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
@@ -32711,7 +32711,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -32776,7 +32776,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
@@ -32906,7 +32906,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -32971,7 +32971,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -33036,7 +33036,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -33101,7 +33101,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
@@ -33166,7 +33166,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -33231,7 +33231,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -33296,7 +33296,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -33361,7 +33361,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
@@ -33426,7 +33426,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>82</v>
       </c>
@@ -33491,7 +33491,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -33556,7 +33556,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
@@ -33621,7 +33621,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -33686,7 +33686,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
@@ -33751,7 +33751,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -33816,7 +33816,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
@@ -33881,7 +33881,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>82</v>
       </c>
@@ -33946,7 +33946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -34027,18 +34027,18 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -34075,7 +34075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -34140,7 +34140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -34205,7 +34205,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -34270,7 +34270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
@@ -34400,7 +34400,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -34465,7 +34465,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
@@ -34530,7 +34530,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
@@ -34660,7 +34660,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -34725,7 +34725,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -34790,7 +34790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -34855,7 +34855,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -34920,7 +34920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -35050,7 +35050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
@@ -35180,7 +35180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
@@ -35245,7 +35245,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -35375,7 +35375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -35440,7 +35440,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -35505,7 +35505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
@@ -35570,7 +35570,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -35635,7 +35635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -35700,7 +35700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
@@ -35765,7 +35765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>85</v>
       </c>
@@ -35830,7 +35830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
@@ -35895,7 +35895,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
@@ -35960,7 +35960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
@@ -36025,7 +36025,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>85</v>
       </c>
@@ -36090,7 +36090,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>85</v>
       </c>
@@ -36155,7 +36155,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -36236,12 +36236,12 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -36278,7 +36278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -36408,7 +36408,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>86</v>
       </c>
@@ -36473,7 +36473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -36538,7 +36538,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -36603,7 +36603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -36668,7 +36668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -36733,7 +36733,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>86</v>
       </c>
@@ -36798,7 +36798,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
@@ -36863,7 +36863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -36928,7 +36928,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -36993,7 +36993,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -37058,7 +37058,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -37123,7 +37123,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>86</v>
       </c>
@@ -37188,7 +37188,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -37253,7 +37253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -37318,7 +37318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
@@ -37383,7 +37383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>86</v>
       </c>
@@ -37448,7 +37448,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -37513,7 +37513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
@@ -37578,7 +37578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -37643,7 +37643,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
@@ -37708,7 +37708,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>86</v>
       </c>
@@ -37773,7 +37773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -37838,7 +37838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -37903,7 +37903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -37968,7 +37968,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>86</v>
       </c>
@@ -38033,7 +38033,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -38098,7 +38098,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -38163,7 +38163,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>86</v>
       </c>
@@ -38228,7 +38228,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>86</v>
       </c>
@@ -38293,7 +38293,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>86</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -38436,23 +38436,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="O14" sqref="O14"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -38489,7 +38489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -38554,7 +38554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -38619,7 +38619,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
@@ -38684,7 +38684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>87</v>
       </c>
@@ -38749,7 +38749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -38814,7 +38814,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>87</v>
       </c>
@@ -38879,7 +38879,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -38944,7 +38944,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
@@ -39009,7 +39009,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
@@ -39074,7 +39074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>87</v>
       </c>
@@ -39139,7 +39139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>87</v>
       </c>
@@ -39204,7 +39204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
@@ -39269,7 +39269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>87</v>
       </c>
@@ -39334,7 +39334,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -39399,7 +39399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
@@ -39464,7 +39464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -39529,7 +39529,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
@@ -39594,7 +39594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
@@ -39659,7 +39659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>87</v>
       </c>
@@ -39724,7 +39724,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
@@ -39789,7 +39789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>87</v>
       </c>
@@ -39854,7 +39854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
@@ -39919,7 +39919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>87</v>
       </c>
@@ -39984,7 +39984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
@@ -40049,7 +40049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>87</v>
       </c>
@@ -40114,7 +40114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -40179,7 +40179,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>87</v>
       </c>
@@ -40244,7 +40244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -40309,7 +40309,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -40374,7 +40374,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>87</v>
       </c>
@@ -40439,7 +40439,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>87</v>
       </c>
@@ -40504,7 +40504,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>87</v>
       </c>
@@ -40569,7 +40569,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -40651,18 +40651,18 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -40699,7 +40699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -40764,7 +40764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -40829,7 +40829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -40894,7 +40894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -40959,7 +40959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -41024,7 +41024,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -41089,7 +41089,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -41154,7 +41154,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -41219,7 +41219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -41284,7 +41284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -41349,7 +41349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -41414,7 +41414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -41479,7 +41479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -41544,7 +41544,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -41609,7 +41609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -41674,7 +41674,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -41739,7 +41739,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -41804,7 +41804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -41869,7 +41869,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -41934,7 +41934,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -41999,7 +41999,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -42064,7 +42064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -42129,7 +42129,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -42194,7 +42194,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -42259,7 +42259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -42324,7 +42324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -42389,7 +42389,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -42454,7 +42454,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
@@ -42519,7 +42519,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -42584,7 +42584,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
@@ -42649,7 +42649,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
@@ -42714,7 +42714,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -42779,7 +42779,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -42861,13 +42861,13 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -42904,7 +42904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -42969,7 +42969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -43034,7 +43034,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -43099,7 +43099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -43164,7 +43164,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -43229,7 +43229,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -43294,7 +43294,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -43359,7 +43359,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -43424,7 +43424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -43489,7 +43489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -43554,7 +43554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -43619,7 +43619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -43684,7 +43684,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -43749,7 +43749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -43814,7 +43814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -43879,7 +43879,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -43944,7 +43944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -44009,7 +44009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -44074,7 +44074,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -44139,7 +44139,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -44204,7 +44204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -44269,7 +44269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -44334,7 +44334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
@@ -44399,7 +44399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -44464,7 +44464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
@@ -44529,7 +44529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
@@ -44594,7 +44594,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
@@ -44659,7 +44659,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -44724,7 +44724,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -44789,7 +44789,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
@@ -44854,7 +44854,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
@@ -44919,7 +44919,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
@@ -44984,7 +44984,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -45065,18 +45065,18 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -45113,7 +45113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -45178,7 +45178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -45243,7 +45243,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -45308,7 +45308,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -45373,7 +45373,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -45438,7 +45438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -45503,7 +45503,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -45568,7 +45568,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -45633,7 +45633,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -45698,7 +45698,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -45763,7 +45763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -45828,7 +45828,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -45893,7 +45893,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -45958,7 +45958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -46023,7 +46023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -46088,7 +46088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -46153,7 +46153,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
@@ -46218,7 +46218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -46283,7 +46283,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -46348,7 +46348,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
@@ -46413,7 +46413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -46478,7 +46478,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -46543,7 +46543,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -46608,7 +46608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -46673,7 +46673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -46738,7 +46738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
@@ -46803,7 +46803,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -46868,7 +46868,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
@@ -46933,7 +46933,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
@@ -46998,7 +46998,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
@@ -47063,7 +47063,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -47128,7 +47128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -47193,7 +47193,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -47274,18 +47274,18 @@
       <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -47322,7 +47322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -47387,7 +47387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -47452,7 +47452,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -47517,7 +47517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -47582,7 +47582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -47647,7 +47647,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -47712,7 +47712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -47777,7 +47777,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -47842,7 +47842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -47907,7 +47907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -47972,7 +47972,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -48037,7 +48037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -48102,7 +48102,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -48167,7 +48167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -48232,7 +48232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -48297,7 +48297,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -48362,7 +48362,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -48427,7 +48427,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -48492,7 +48492,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -48557,7 +48557,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -48622,7 +48622,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -48687,7 +48687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -48752,7 +48752,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -48817,7 +48817,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
@@ -48882,7 +48882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -48947,7 +48947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -49012,7 +49012,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -49077,7 +49077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -49142,7 +49142,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -49207,7 +49207,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
@@ -49272,7 +49272,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -49337,7 +49337,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
@@ -49402,7 +49402,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -49484,18 +49484,18 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -49532,7 +49532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -49597,7 +49597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -49662,7 +49662,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -49727,7 +49727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -49792,7 +49792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -49857,7 +49857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -49922,7 +49922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -49987,7 +49987,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -50052,7 +50052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -50117,7 +50117,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -50182,7 +50182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -50247,7 +50247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -50312,7 +50312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -50377,7 +50377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -50442,7 +50442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -50507,7 +50507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -50572,7 +50572,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -50637,7 +50637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -50702,7 +50702,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -50767,7 +50767,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -50832,7 +50832,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -50897,7 +50897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -50962,7 +50962,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -51027,7 +51027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -51092,7 +51092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -51157,7 +51157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -51222,7 +51222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -51287,7 +51287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -51352,7 +51352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -51417,7 +51417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
@@ -51482,7 +51482,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -51547,7 +51547,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
@@ -51612,7 +51612,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -51693,13 +51693,13 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -51736,7 +51736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -51801,7 +51801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -51866,7 +51866,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -51931,7 +51931,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -51996,7 +51996,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -52061,7 +52061,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -52126,7 +52126,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -52191,7 +52191,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -52256,7 +52256,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -52321,7 +52321,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -52386,7 +52386,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -52451,7 +52451,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -52516,7 +52516,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -52581,7 +52581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -52646,7 +52646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -52711,7 +52711,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -52776,7 +52776,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -52841,7 +52841,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -52906,7 +52906,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -52971,7 +52971,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -53036,7 +53036,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -53101,7 +53101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -53166,7 +53166,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -53231,7 +53231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -53296,7 +53296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -53361,7 +53361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -53426,7 +53426,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -53491,7 +53491,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -53556,7 +53556,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -53621,7 +53621,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -53686,7 +53686,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
@@ -53751,7 +53751,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>49</v>
       </c>
@@ -53816,7 +53816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -53896,13 +53896,13 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -53939,7 +53939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -54004,7 +54004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -54069,7 +54069,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -54134,7 +54134,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -54199,7 +54199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -54264,7 +54264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -54329,7 +54329,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -54394,7 +54394,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -54459,7 +54459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -54524,7 +54524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -54589,7 +54589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -54654,7 +54654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -54719,7 +54719,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -54784,7 +54784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -54849,7 +54849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -54914,7 +54914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -54979,7 +54979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -55044,7 +55044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -55109,7 +55109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -55174,7 +55174,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -55239,7 +55239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -55304,7 +55304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -55369,7 +55369,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -55434,7 +55434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -55499,7 +55499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -55564,7 +55564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -55629,7 +55629,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -55694,7 +55694,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -55759,7 +55759,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -55824,7 +55824,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -55889,7 +55889,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -55954,7 +55954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -56019,7 +56019,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -56101,23 +56101,53 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35899</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35899</Url>
-      <Description>H7Q62YT2XCZT-908671883-35899</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56428,67 +56458,71 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35899</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35899</Url>
+      <Description>H7Q62YT2XCZT-908671883-35899</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57A71467-CE04-4909-92FB-DA4BC9B42500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961B772B-B6FF-4102-BE4A-B0F70DBD68F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961B772B-B6FF-4102-BE4A-B0F70DBD68F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57A71467-CE04-4909-92FB-DA4BC9B42500}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>